--- a/schedule_685.xlsx
+++ b/schedule_685.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\math_685\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/math_685/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07DB21F-41ED-4771-9137-2567512AD9BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155C46DC-994C-9844-A9E1-717C44741B75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2080" yWindow="460" windowWidth="36280" windowHeight="19040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Detail" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
   <si>
     <t>Finals Week</t>
   </si>
@@ -1068,24 +1068,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="51" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="51" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="3" customWidth="1"/>
-    <col min="4" max="7" width="36.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="36.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="2.875" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="88.625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="14.875" style="3"/>
+    <col min="1" max="1" width="7.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="36.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="88.6640625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="14.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1114,7 +1116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="208" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1144,7 +1146,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1173,7 +1175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1199,7 +1201,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1225,7 +1227,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="256" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1256,7 +1258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1272,7 +1274,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -1296,7 +1298,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -1314,7 +1316,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1338,7 +1340,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -1360,7 +1362,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -1380,7 +1382,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -1398,7 +1400,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -1416,7 +1418,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="13">
         <f t="shared" si="0"/>
@@ -1430,7 +1432,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -1450,7 +1452,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -1470,7 +1472,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1488,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="23"/>
       <c r="C19" s="14" t="s">
@@ -1500,7 +1502,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="23"/>
       <c r="C20" s="14" t="s">
@@ -1512,7 +1514,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1520,8 +1522,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="D29" s="25"/>
     </row>
   </sheetData>
@@ -1539,21 +1541,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A793E651-852A-4512-B8D0-B3343307CB94}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="226" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="26"/>
     <col min="3" max="3" width="12.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>59</v>
       </c>
@@ -1570,7 +1572,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>68</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>68</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>69</v>
       </c>
@@ -1615,7 +1617,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>69</v>
       </c>
@@ -1626,7 +1628,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>75</v>
       </c>
@@ -1637,7 +1639,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>75</v>
       </c>
@@ -1648,7 +1650,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>75</v>
       </c>

--- a/schedule_685.xlsx
+++ b/schedule_685.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/math_685/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155C46DC-994C-9844-A9E1-717C44741B75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1518237B-0B14-9344-B629-0F779539CE3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="460" windowWidth="36280" windowHeight="19040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Detail" sheetId="5" r:id="rId1"/>
@@ -19,19 +19,11 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Weekly Detail'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>Finals Week</t>
   </si>
@@ -239,9 +231,6 @@
 Push/pull, collaborating with others directly on a workflow</t>
   </si>
   <si>
-    <t>cimis</t>
-  </si>
-  <si>
     <t>finish working on website</t>
   </si>
   <si>
@@ -283,9 +272,6 @@
     <t>https://stringr.tidyverse.org/index.html</t>
   </si>
   <si>
-    <t>text analysis</t>
-  </si>
-  <si>
     <t>text processing</t>
   </si>
   <si>
@@ -325,10 +311,19 @@
     <t>word clouds, sentiment analysis</t>
   </si>
   <si>
-    <t>regex hell, stringr</t>
-  </si>
-  <si>
-    <t>Analyze twitter data for days during campfire. Present at anniversary.</t>
+    <t xml:space="preserve">irf is out of town, megan/kathleen busy on one or other day. </t>
+  </si>
+  <si>
+    <t>gsub, stringr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get data from web, do mini analysis, present tutorial on website. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">End goal is to find something you've done this semester or elsehwere where you've copy/pasted code. Turn this into a function. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stat 545: Ch 17 (skim), Ch 18 &amp; 19 (Functions part I and II), OR R for Data Science ch 19 https://r4ds.had.co.nz/functions.html </t>
   </si>
 </sst>
 </file>
@@ -338,16 +333,9 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -411,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,12 +430,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -475,161 +457,158 @@
   </borders>
   <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="79" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="79" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="79"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="79"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -642,11 +621,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="79" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="79" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
@@ -1068,9 +1044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="51" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16:C20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1312,7 +1288,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="14"/>
       <c r="H9" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -1325,23 +1301,25 @@
         <v>42297</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="E10" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="19"/>
+        <v>77</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="13">
@@ -1349,34 +1327,30 @@
         <v>42304</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="31" t="s">
-        <v>82</v>
+      <c r="H11" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="13">
         <f t="shared" si="0"/>
         <v>42311</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="E12" s="15"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="19"/>
@@ -1390,17 +1364,21 @@
         <f t="shared" si="0"/>
         <v>42318</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="19" t="s">
-        <v>53</v>
+      <c r="G13" s="20"/>
+      <c r="H13" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -1408,14 +1386,12 @@
         <f t="shared" si="0"/>
         <v>42325</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>57</v>
-      </c>
+      <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -1424,12 +1400,12 @@
         <f t="shared" si="0"/>
         <v>42332</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -1490,12 +1466,12 @@
     </row>
     <row r="19" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="15"/>
@@ -1504,10 +1480,7 @@
     </row>
     <row r="20" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="B20" s="22"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -1522,9 +1495,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="C23" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="D29" s="25"/>
+      <c r="D29" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1542,123 +1524,123 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="226" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="26"/>
-    <col min="3" max="3" width="12.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="13.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="25"/>
+    <col min="3" max="3" width="12.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="D1" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C2" s="27">
+        <v>42300</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="27">
+        <v>42300</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="27">
+        <v>42300</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="27">
+        <v>42300</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="C6" s="27">
         <v>42300</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E6" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="27">
+        <v>42300</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="28">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="27">
         <v>42300</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="28">
-        <v>42300</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="28">
-        <v>42300</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="28">
-        <v>42300</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="28">
-        <v>42300</v>
-      </c>
-      <c r="E7" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="28">
-        <v>42300</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_685.xlsx
+++ b/schedule_685.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20352"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/math_685/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\math_685\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1518237B-0B14-9344-B629-0F779539CE3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F33D99E-6F25-41C1-9EAE-5F8C26128991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20055" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Detail" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Weekly Detail'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>Finals Week</t>
   </si>
@@ -171,31 +171,10 @@
     <t xml:space="preserve">Dissemination to a broader public. </t>
   </si>
   <si>
-    <t>Clustering methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knn, decision trees, </t>
-  </si>
-  <si>
-    <t>PCA, FA</t>
-  </si>
-  <si>
-    <t>Predictive modeling</t>
-  </si>
-  <si>
     <t>Bootstrapping</t>
   </si>
   <si>
-    <t>Unsupervised learning / dimension reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lin reg, log reg, decision trees, </t>
-  </si>
-  <si>
     <t>Relational databases</t>
-  </si>
-  <si>
-    <t>Stat 545 Data Analysis 3</t>
   </si>
   <si>
     <t xml:space="preserve">reproducible data exploration on the gapminder data. Rmarkdown file. Pick 2-3 variables to explore using visualizations. NO ANALSYSIS. But story. Tell a story using the gapminder data. </t>
@@ -324,6 +303,26 @@
   </si>
   <si>
     <t xml:space="preserve">Stat 545: Ch 17 (skim), Ch 18 &amp; 19 (Functions part I and II), OR R for Data Science ch 19 https://r4ds.had.co.nz/functions.html </t>
+  </si>
+  <si>
+    <t>Classification methods</t>
+  </si>
+  <si>
+    <t>Kathleen: Write a function to automate grep pattern matches in master log</t>
+  </si>
+  <si>
+    <t>irf out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use models to predict an event, or group an observation will be in? </t>
+  </si>
+  <si>
+    <t>ASCN Ch 11, 
+https://dzone.com/refcardz/machine-learning-predictive
+ISLR ch 2: What is statistical learning (2.1), Assessing model accuracy (2.2)</t>
+  </si>
+  <si>
+    <t>Cross validation</t>
   </si>
 </sst>
 </file>
@@ -431,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -454,6 +453,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -537,7 +545,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -602,12 +610,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="79"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -623,6 +625,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="79" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
@@ -1046,24 +1072,24 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="36.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="36.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="20" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="36.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="88.6640625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="14.83203125" style="3"/>
+    <col min="7" max="7" width="36.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="36.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="2.875" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="88.625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="14.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1092,7 +1118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1119,10 +1145,10 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1144,14 +1170,14 @@
         <v>16</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1177,7 +1203,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1203,7 +1229,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1221,20 +1247,20 @@
         <v>35</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1250,7 +1276,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -1274,7 +1300,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -1288,11 +1314,11 @@
       <c r="F9" s="15"/>
       <c r="G9" s="14"/>
       <c r="H9" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1301,24 +1327,24 @@
         <v>42297</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -1327,20 +1353,23 @@
         <v>42304</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -1355,9 +1384,12 @@
       <c r="G12" s="14"/>
       <c r="H12" s="19"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="J12" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" s="13">
@@ -1365,21 +1397,24 @@
         <v>42318</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="J13" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" s="13">
@@ -1391,10 +1426,12 @@
       <c r="E14" s="14"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="16"/>
+      <c r="H14" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="13">
         <f t="shared" si="0"/>
@@ -1408,7 +1445,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -1417,18 +1454,20 @@
         <v>42339</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="E16" s="14" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="19"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -1437,18 +1476,16 @@
         <v>42346</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="19"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>0</v>
       </c>
@@ -1464,49 +1501,43 @@
       <c r="H18" s="19"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="14" t="s">
+    <row r="19" spans="1:9" s="28" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" s="28" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="22"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="C23" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="D29" s="24"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1524,123 +1555,123 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="226" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="25"/>
-    <col min="3" max="3" width="12.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="13.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="23"/>
+    <col min="3" max="3" width="12.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="25">
+        <v>42300</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="25">
+        <v>42300</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="25" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="25">
+        <v>42300</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="25" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="C5" s="25">
+        <v>42300</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="27">
+      <c r="C6" s="25">
         <v>42300</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="E6" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="C7" s="25">
         <v>42300</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="E7" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="27">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="25">
         <v>42300</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E8" s="27" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="27">
-        <v>42300</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="27">
-        <v>42300</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="27">
-        <v>42300</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="27">
-        <v>42300</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_685.xlsx
+++ b/schedule_685.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20352"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\math_685\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F33D99E-6F25-41C1-9EAE-5F8C26128991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20055" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Detail" sheetId="5" r:id="rId1"/>
@@ -19,21 +13,21 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Weekly Detail'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>Finals Week</t>
   </si>
@@ -322,17 +316,34 @@
 ISLR ch 2: What is statistical learning (2.1), Assessing model accuracy (2.2)</t>
   </si>
   <si>
-    <t>Cross validation</t>
+    <t>ISLR Ch 2: #2, 
+Ch3 #15d (boston &lt;- MASS::Boston). Codebook at ?MASS::Boston.  Is there a non-linear relationship between crime rate (y) and your chosen predictor (you can use any continuous variable here)? Make scatterplot first and an educated guess. Then fit a simple linear model, and a model with a squared &amp; cubic term. Compare R^2 and RMSE for each model and identify which model fits best. 
+Read Ch 4 - Work through CH 4 lab. Don't do 4.6.6 (caravan)</t>
+  </si>
+  <si>
+    <t>Cross validation, ensemble models  (Trees)</t>
+  </si>
+  <si>
+    <t>Ch5, Ch8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time pending. </t>
+  </si>
+  <si>
+    <t>Final: Friday debrief over beerz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review this &lt;- and websites on Friday of dead week. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,6 +408,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -440,16 +458,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,7 +475,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -545,7 +563,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -648,6 +666,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -728,10 +749,10 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 3" xfId="77" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Percent 3" xfId="78" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 2" xfId="51"/>
+    <cellStyle name="Normal 3" xfId="77"/>
+    <cellStyle name="Percent 2" xfId="52"/>
+    <cellStyle name="Percent 3" xfId="78"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1067,29 +1088,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="36.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="36.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="20" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="36.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="2.875" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="88.625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="14.875" style="3"/>
+    <col min="7" max="7" width="36.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="88.6640625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="14.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1118,7 +1139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="195">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1148,7 +1169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="75">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1177,7 +1198,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="75">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1203,7 +1224,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="75">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1229,7 +1250,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="240">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1260,7 +1281,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1276,7 +1297,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="60">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -1300,7 +1321,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="44" customHeight="1">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -1318,7 +1339,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="60">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1344,7 +1365,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="38.25" customHeight="1">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -1369,7 +1390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="29" customHeight="1">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -1388,7 +1409,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="29" customHeight="1">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -1413,7 +1434,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="52" customHeight="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -1431,7 +1452,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="29" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="13">
         <f t="shared" si="0"/>
@@ -1445,7 +1466,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="113" customHeight="1">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -1464,10 +1485,15 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="19"/>
+      <c r="H16" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="29" customHeight="1">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -1475,17 +1501,21 @@
         <f t="shared" si="0"/>
         <v>42346</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="14"/>
+      <c r="C17" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>84</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="29" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>0</v>
       </c>
@@ -1498,10 +1528,12 @@
       <c r="E18" s="15"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" s="28" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="28" customFormat="1" ht="29" customHeight="1">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
@@ -1512,7 +1544,7 @@
       <c r="H19" s="31"/>
       <c r="I19" s="30"/>
     </row>
-    <row r="20" spans="1:9" s="28" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="28" customFormat="1" ht="29" customHeight="1">
       <c r="B20" s="29"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
@@ -1520,55 +1552,60 @@
       <c r="G20" s="30"/>
       <c r="I20" s="30"/>
     </row>
-    <row r="21" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="29" customHeight="1"/>
+    <row r="22" spans="1:9" ht="29" customHeight="1">
       <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="C23" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75">
       <c r="D29" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" display="https://holtzy.github.io/Pimp-my-rmd/" xr:uid="{8AF682AA-9264-40B5-90D7-3FF02F13B3B5}"/>
-    <hyperlink ref="E10" r:id="rId2" display="Stat 545: Get data from the web https://stat545.com/web-data-slides.html" xr:uid="{0F2B4E34-455B-9E48-B1D6-B198CFE5C1EC}"/>
+    <hyperlink ref="G6" r:id="rId1" display="https://holtzy.github.io/Pimp-my-rmd/"/>
+    <hyperlink ref="E10" r:id="rId2" display="Stat 545: Get data from the web https://stat545.com/web-data-slides.html"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="landscape" blackAndWhite="1" draft="1" r:id="rId3"/>
+  <pageSetup scale="85" orientation="landscape" blackAndWhite="1" draft="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A793E651-852A-4512-B8D0-B3343307CB94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="226" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="23"/>
     <col min="3" max="3" width="12.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="23" t="s">
         <v>51</v>
       </c>
@@ -1585,7 +1622,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="47.25">
       <c r="A2" s="23" t="s">
         <v>59</v>
       </c>
@@ -1602,7 +1639,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="23" t="s">
         <v>59</v>
       </c>
@@ -1616,7 +1653,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="23" t="s">
         <v>60</v>
       </c>
@@ -1630,7 +1667,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="23" t="s">
         <v>60</v>
       </c>
@@ -1641,7 +1678,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="23" t="s">
         <v>66</v>
       </c>
@@ -1652,7 +1689,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="23" t="s">
         <v>66</v>
       </c>
@@ -1663,7 +1700,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="23" t="s">
         <v>66</v>
       </c>
@@ -1676,14 +1713,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://regex101.com/" xr:uid="{9E1A45EF-B303-4D59-9F08-BBB2ADD4CB89}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{1C85CB35-4CBA-4A89-857E-E37418094E26}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{AA085BCF-0942-4324-ADBB-DEDA2B9B10E2}"/>
-    <hyperlink ref="E5" r:id="rId4" location="html" display="https://cfss.uchicago.edu/notes/web-scraping/ - html" xr:uid="{062B566B-ABC8-4503-BC9C-ADAE7F5E64BC}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{20FCD814-90F1-4E89-81CF-F4DFB65D8CEB}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{194F93BF-98DB-4706-AD44-18216FE6D52A}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{E3B96E83-8C7F-4BA3-AF39-5097862C1F77}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://regex101.com/"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4" location="html" display="https://cfss.uchicago.edu/notes/web-scraping/ - html"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>